--- a/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
+++ b/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\02_Novelty_sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$D$3:$E$21</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -88,20 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受光モジュール</t>
-    <rPh sb="0" eb="2">
-      <t>ジュコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>光リモコン</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>光センサ</t>
     <rPh sb="0" eb="1">
       <t>ヒカリ</t>
@@ -914,6 +903,245 @@
   </si>
   <si>
     <t>ライトフィールドカメラ(CMOSセンサ+マイクロレンズアレイ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・永良さんの修論</t>
+    <rPh sb="1" eb="3">
+      <t>ナガラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○ロケーションベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARを成り立たせる技術を学ぶ</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離測定センサ</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステレオカメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デプスカメラ(RGBDカメラ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザーレンジファインダ(LRF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オドメトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザーレンジスキャナー、カメラ、エンコーダ、マイクロフォンアレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPS、IMES、携帯電話基地局、Wi-Fi、Bluetooth、地磁気、IMU(加速度センサ、地磁気センサ、ジャイロセンサ)</t>
+    <rPh sb="9" eb="11">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>キチキョク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>チジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像センサ+IMU</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SLAM(自己位置推定+地図構築)</t>
+    <rPh sb="6" eb="8">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○ビジョンベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Light Field Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・超音波センサ</t>
+    <rPh sb="1" eb="4">
+      <t>チョウオンパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・赤外線センサ</t>
+    <rPh sb="1" eb="4">
+      <t>セキガイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.cc.kyoto-su.ac.jp/~kano/pdf/paper/2015%203D%20Engineering%20symposium%20presen.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○例</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センサを使った3D自己位置推定手法の精度評価</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AR？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・その他、「そんなセンサで自己位置推定できるの？？」というセンサを調査中</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のセンサって使えないのか…？</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度を使った自己位置推定</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水中での自己位置推定</t>
+    <rPh sb="0" eb="2">
+      <t>スイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARを応用したい</t>
+    <rPh sb="3" eb="5">
+      <t>オウヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -921,7 +1149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,6 +1174,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -964,12 +1201,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,8 +1225,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1299,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EEE81D-C492-4715-AEEF-EC9831F6A653}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1312,7 +1559,7 @@
     <col min="3" max="16384" width="33" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1320,540 +1567,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+      <c r="D6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5"/>
+      <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="3"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="3"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
+      <c r="A59" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="B59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="3"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
-        <v>46</v>
+      <c r="A63" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="B65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="3"/>
       <c r="B66" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="3"/>
-      <c r="B69" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
-        <v>53</v>
+      <c r="A70" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A72" s="5"/>
       <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="3"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="3"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="3"/>
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="3"/>
       <c r="B76" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="3"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
-        <v>63</v>
+      <c r="A78" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="3"/>
+      <c r="A79" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
-        <v>66</v>
+      <c r="A80" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A81" s="5"/>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1861,133 +2183,149 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
-        <v>71</v>
+      <c r="A84" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A85" s="5"/>
       <c r="B85" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
-        <v>74</v>
+      <c r="A86" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="3"/>
+      <c r="A87" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="A88" s="5"/>
       <c r="B88" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>83</v>
+      <c r="A89" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="3"/>
+      <c r="A90" s="5"/>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A91" s="5"/>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="3"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="3"/>
+      <c r="A93" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="3"/>
+      <c r="A94" s="5"/>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A95" s="5"/>
       <c r="B95" s="1" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="3"/>
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" s="5"/>
+      <c r="B98" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A63:A64"/>
+  <mergeCells count="26">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A93:A95"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E14" r:id="rId1" xr:uid="{F37D806E-209F-47AC-AA05-E1E1AA160E9B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
+++ b/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745" xr2:uid="{C6373E4D-AD80-46ED-8522-8ACFEFCD3AAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745" activeTab="4" xr2:uid="{C6373E4D-AD80-46ED-8522-8ACFEFCD3AAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="センサ一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="手段・目的対応表" sheetId="2" r:id="rId2"/>
+    <sheet name="トコトンやさしいセンサの本" sheetId="3" r:id="rId3"/>
+    <sheet name="メモ" sheetId="4" r:id="rId4"/>
+    <sheet name="既往論文" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$D$3:$E$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">メモ!$B$2:$C$20</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -1142,6 +1146,79 @@
     <rPh sb="3" eb="5">
       <t>オウヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角速度</t>
+    <rPh sb="0" eb="3">
+      <t>カクソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手段</t>
+    <rPh sb="0" eb="2">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間意志</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接近</t>
+    <rPh sb="0" eb="2">
+      <t>セッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿度</t>
+    <rPh sb="0" eb="2">
+      <t>シツド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文名</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1209,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1225,11 +1302,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1546,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EEE81D-C492-4715-AEEF-EC9831F6A653}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1559,7 +1642,7 @@
     <col min="3" max="16384" width="33" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1567,244 +1650,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1812,21 +1820,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
@@ -1834,58 +1842,58 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1893,13 +1901,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1907,25 +1915,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1933,37 +1941,37 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="5"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="5"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1971,13 +1979,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="5"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1985,37 +1993,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="5"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="5"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2023,13 +2031,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2037,13 +2045,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2051,7 +2059,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="5"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -2065,7 +2073,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2073,13 +2081,13 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2087,13 +2095,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="5"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2101,37 +2109,37 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="5"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="5"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="5"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="5"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="5"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2139,7 +2147,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="5"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="1" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2169,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2169,7 +2177,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="5"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
@@ -2191,7 +2199,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2199,7 +2207,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="5"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2213,7 +2221,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2221,13 +2229,13 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2235,25 +2243,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="5"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="5"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2261,13 +2269,13 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="5"/>
+      <c r="A94" s="6"/>
       <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="5"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
@@ -2279,7 +2287,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2287,28 +2295,13 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="5"/>
+      <c r="A98" s="6"/>
       <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A89:A92"/>
@@ -2320,12 +2313,316 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2E23F1-2616-4149-8368-5D00D19A1B36}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68552703-0AD8-4D91-ABA9-9CACF5514629}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1615C3C-1C68-40EE-A2B4-D4DEAB4453B5}">
+  <dimension ref="B2:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" xr:uid="{F37D806E-209F-47AC-AA05-E1E1AA160E9B}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{F37D806E-209F-47AC-AA05-E1E1AA160E9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71D69BD-AD22-45E5-8BF2-DE4F20AED8F2}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
+++ b/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\02_Novelty_sensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_thesis\02_workspace\01_study\02_Novelty_sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745" activeTab="4" xr2:uid="{C6373E4D-AD80-46ED-8522-8ACFEFCD3AAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745" xr2:uid="{C6373E4D-AD80-46ED-8522-8ACFEFCD3AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="センサ一覧" sheetId="1" r:id="rId1"/>
@@ -1306,10 +1306,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EEE81D-C492-4715-AEEF-EC9831F6A653}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1651,7 +1651,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1659,13 +1659,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1673,19 +1673,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1693,55 +1693,55 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1749,25 +1749,25 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1775,19 +1775,19 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1795,19 +1795,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1829,7 +1829,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1851,49 +1851,49 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1901,13 +1901,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1915,25 +1915,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1941,37 +1941,37 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1979,13 +1979,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1993,37 +1993,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="6"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2031,13 +2031,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="6"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2045,13 +2045,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2059,7 +2059,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2081,13 +2081,13 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="6"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2095,13 +2095,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2109,37 +2109,37 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2147,7 +2147,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="1" t="s">
         <v>63</v>
       </c>
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2177,7 +2177,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="6"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2207,7 +2207,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="6"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2229,13 +2229,13 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="6"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2243,25 +2243,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2269,13 +2269,13 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="6"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2295,13 +2295,28 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="6"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A61:A62"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A89:A92"/>
@@ -2313,21 +2328,6 @@
     <mergeCell ref="A80:A81"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2345,7 +2345,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -2365,16 +2365,16 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       <c r="A3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1615C3C-1C68-40EE-A2B4-D4DEAB4453B5}">
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2465,7 +2465,7 @@
     <col min="3" max="3" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>125</v>
       </c>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="2:3" ht="281.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" ht="75" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
@@ -2497,13 +2497,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" ht="243.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" ht="75" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>136</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>137</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="75" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" ht="75" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>143</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>141</v>
       </c>
@@ -2604,7 +2604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71D69BD-AD22-45E5-8BF2-DE4F20AED8F2}">
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
+++ b/02_workspace/01_study/02_Novelty_sensor/novelty_sensor.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745" xr2:uid="{C6373E4D-AD80-46ED-8522-8ACFEFCD3AAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745" activeTab="1" xr2:uid="{C6373E4D-AD80-46ED-8522-8ACFEFCD3AAE}"/>
   </bookViews>
   <sheets>
     <sheet name="センサ一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="手段・目的対応表" sheetId="2" r:id="rId2"/>
-    <sheet name="トコトンやさしいセンサの本" sheetId="3" r:id="rId3"/>
-    <sheet name="メモ" sheetId="4" r:id="rId4"/>
-    <sheet name="既往論文" sheetId="5" r:id="rId5"/>
+    <sheet name="まとめ" sheetId="6" r:id="rId2"/>
+    <sheet name="手段・目的対応表" sheetId="2" r:id="rId3"/>
+    <sheet name="トコトンやさしいセンサの本" sheetId="3" r:id="rId4"/>
+    <sheet name="メモ" sheetId="4" r:id="rId5"/>
+    <sheet name="既往論文" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">メモ!$B$2:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">まとめ!$A$1:$D$74</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="265">
   <si>
     <t>目的</t>
     <rPh sb="0" eb="2">
@@ -1219,6 +1221,938 @@
   </si>
   <si>
     <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検出対象</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫外線</t>
+    <rPh sb="0" eb="3">
+      <t>シガイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振動</t>
+    <rPh sb="0" eb="2">
+      <t>シンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <rPh sb="0" eb="3">
+      <t>カソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質量</t>
+    <rPh sb="0" eb="2">
+      <t>シツリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力</t>
+    <rPh sb="0" eb="2">
+      <t>アツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変位</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角速度</t>
+    <rPh sb="0" eb="1">
+      <t>カド</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可燃性ガス</t>
+    <rPh sb="0" eb="3">
+      <t>カネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽電池</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舵角センサ</t>
+    <rPh sb="0" eb="2">
+      <t>ダカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pHセンサ(水素イオン)</t>
+    <rPh sb="6" eb="8">
+      <t>スイソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視覚(光)</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聴覚(音)</t>
+    <rPh sb="0" eb="2">
+      <t>チョウカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>触覚(力)</t>
+    <rPh sb="0" eb="2">
+      <t>ショッカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嗅覚(気体)</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトフィールドカメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤外線ガス分析センサ</t>
+    <rPh sb="0" eb="3">
+      <t>セキガイセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱電体</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検出手段</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油臭</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ニオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表: センサ一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半導体センサ</t>
+    <rPh sb="0" eb="3">
+      <t>ハンドウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤外線体温計</t>
+    <rPh sb="0" eb="3">
+      <t>セキガイセン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タイオンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タッチパネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意志</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CdS(硫化カドミウム)</t>
+    <rPh sb="4" eb="6">
+      <t>リュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間の目の波長速度に類似</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ルイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磁気</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸素濃度</t>
+    <rPh sb="0" eb="2">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸素濃度センサ</t>
+    <rPh sb="0" eb="2">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ノウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流量</t>
+    <rPh sb="0" eb="2">
+      <t>リュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気圧</t>
+    <rPh sb="0" eb="2">
+      <t>キアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風向</t>
+    <rPh sb="0" eb="2">
+      <t>カザム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨量</t>
+    <rPh sb="0" eb="2">
+      <t>ウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味覚(液体、固体)</t>
+    <rPh sb="0" eb="2">
+      <t>ミカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物体の性質</t>
+    <rPh sb="0" eb="2">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>γ線</t>
+    <rPh sb="1" eb="2">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X線</t>
+    <rPh sb="1" eb="2">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電波</t>
+    <rPh sb="0" eb="2">
+      <t>デンパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有機化合物</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naイオンセンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kイオンセンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酵素センサ</t>
+    <rPh sb="0" eb="2">
+      <t>コウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルコースセンサなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>免疫センサ</t>
+    <rPh sb="0" eb="2">
+      <t>メンエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォトトランジスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PbS(硫化鉛)</t>
+    <rPh sb="4" eb="6">
+      <t>リュウカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナマリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOS型イメージセンサ</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCDイメージセンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーミスタ(半導体センサ)</t>
+    <rPh sb="6" eb="9">
+      <t>ハンドウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>液位</t>
+    <rPh sb="0" eb="2">
+      <t>エキイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しぼり流量センサ</t>
+    <rPh sb="3" eb="5">
+      <t>リュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電磁流量計</t>
+    <rPh sb="0" eb="2">
+      <t>デンジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リュウリョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渦流量計</t>
+    <rPh sb="0" eb="1">
+      <t>ウズ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>リュウリョウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物体の存在</t>
+    <rPh sb="0" eb="2">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォトインタラプタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひずみゲージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磁界</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療分野で応用</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超音波エコーイメージング</t>
+    <rPh sb="0" eb="3">
+      <t>チョウオンパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血圧センサ(半導体センサ)</t>
+    <rPh sb="0" eb="2">
+      <t>ケツアツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンドウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カフ中のマイクでコロトコフ音を拾う</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水質管理、公害監視、医療分析に応用</t>
+    <rPh sb="0" eb="2">
+      <t>スイシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火災検知器</t>
+    <rPh sb="0" eb="2">
+      <t>カサイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケンチキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光ファイバー</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崖崩れの検知に応用</t>
+    <rPh sb="0" eb="1">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦揺れセンサ</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地震の検知に応用</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底圧力センサ</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津波の検知に応用</t>
+    <rPh sb="0" eb="2">
+      <t>ツナミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <rPh sb="0" eb="2">
+      <t>キンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金属探知機などに応用</t>
+    <rPh sb="0" eb="2">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タンチキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測候所装置</t>
+    <rPh sb="0" eb="3">
+      <t>ソッコウジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気象予測に応用</t>
+    <rPh sb="0" eb="2">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC、スマートフォンに応用</t>
+    <rPh sb="11" eb="13">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味</t>
+    <rPh sb="0" eb="1">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘味センサ</t>
+    <rPh sb="0" eb="2">
+      <t>アマミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩味センサ</t>
+    <rPh sb="0" eb="2">
+      <t>シオアジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸味センサ</t>
+    <rPh sb="0" eb="2">
+      <t>サンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苦味センサ</t>
+    <rPh sb="0" eb="2">
+      <t>ニガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うま味センサ</t>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抗原抗体反応を利用</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列ごとに電荷転送</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォトダイオードの出力を指定、読出</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICカードのデータ読み取りに応用</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転数</t>
+    <rPh sb="0" eb="3">
+      <t>カイテンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後述</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像センサに応用</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロホン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動電型、静電型、圧電型の三種類</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイデンガタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アツデン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透過型、反射型の二種類</t>
+    <rPh sb="0" eb="3">
+      <t>トウカガタ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハンシャガタ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲酒運転の摘発に応用</t>
+    <rPh sb="0" eb="2">
+      <t>インシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テキハツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品の評価に応用</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1226,7 +2160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,16 +2194,61 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1277,6 +2256,385 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1286,7 +2644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,8 +2666,248 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1631,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EEE81D-C492-4715-AEEF-EC9831F6A653}">
   <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1651,7 +3249,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1659,13 +3257,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="48" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1673,19 +3271,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="7"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1693,55 +3291,55 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="48" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1749,25 +3347,25 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1775,19 +3373,19 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1795,19 +3393,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +3419,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="48" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1829,7 +3427,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="7"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
@@ -1843,7 +3441,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1851,49 +3449,49 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="7"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="7"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="7"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1901,13 +3499,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="7"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1915,25 +3513,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="7"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1941,37 +3539,37 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="7"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="7"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="7"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="7"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="48" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1979,13 +3577,13 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="7"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1993,37 +3591,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="7"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="7"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="7"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -2031,13 +3629,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="7"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2045,13 +3643,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="48" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2059,7 +3657,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="7"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="1" t="s">
         <v>52</v>
       </c>
@@ -2073,7 +3671,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -2081,13 +3679,13 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2095,13 +3693,13 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="7"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -2109,37 +3707,37 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="7"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="7"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A74" s="7"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A75" s="7"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2147,7 +3745,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="1" t="s">
         <v>63</v>
       </c>
@@ -2169,7 +3767,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="48" t="s">
         <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2177,7 +3775,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="7"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="1" t="s">
         <v>68</v>
       </c>
@@ -2199,7 +3797,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2207,7 +3805,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="7"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2221,7 +3819,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="48" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2229,13 +3827,13 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A88" s="7"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2243,25 +3841,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="7"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="7"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="7"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="48" t="s">
         <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -2269,13 +3867,13 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A94" s="7"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A95" s="7"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="1" t="s">
         <v>129</v>
       </c>
@@ -2287,7 +3885,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="48" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2295,7 +3893,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="7"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
@@ -2336,6 +3934,757 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBAE536-A550-49AB-B788-25BAD9A3BAE0}">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="69"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="69"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="77"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="69"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="78"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="69"/>
+      <c r="B10" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="69"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="69"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="69"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="69"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="69"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="69"/>
+      <c r="B16" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="69"/>
+      <c r="B17" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="69"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="69"/>
+      <c r="B19" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="69"/>
+      <c r="B20" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="70"/>
+      <c r="B21" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="72"/>
+      <c r="B24" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="72"/>
+      <c r="B25" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="72"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="72"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="72"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="72"/>
+      <c r="B29" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="72"/>
+      <c r="B30" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="72"/>
+      <c r="B31" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="72"/>
+      <c r="B33" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="72"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="72"/>
+      <c r="B35" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="72"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="72"/>
+      <c r="B37" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="72"/>
+      <c r="B38" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="72"/>
+      <c r="B39" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="72"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="72"/>
+      <c r="B41" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="72"/>
+      <c r="B42" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="72"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="86"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="72"/>
+      <c r="B44" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="72"/>
+      <c r="B45" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="73"/>
+      <c r="B46" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="83"/>
+      <c r="D46" s="85"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="53"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="58"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="53"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="81"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="53"/>
+      <c r="B50" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="53"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="53"/>
+      <c r="B52" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="53"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="53"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="53"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="53"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="53"/>
+      <c r="B57" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="53"/>
+      <c r="B58" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="53"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="53"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="53"/>
+      <c r="B61" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="53"/>
+      <c r="B62" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="53"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="58"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="53"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="58"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="53"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="58"/>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="54"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" s="59"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="50"/>
+      <c r="B68" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="50"/>
+      <c r="B69" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="50"/>
+      <c r="B70" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="50"/>
+      <c r="B71" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="17"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="50"/>
+      <c r="B72" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="50"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="17"/>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="51"/>
+      <c r="B74" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="A23:A46"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="A47:A66"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B72:B73"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2E23F1-2616-4149-8368-5D00D19A1B36}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -2349,22 +4698,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
       <c r="C2" s="6" t="s">
         <v>155</v>
       </c>
@@ -2379,7 +4728,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="88" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2387,43 +4736,43 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
+      <c r="A4" s="88"/>
       <c r="B4" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="8"/>
+      <c r="A7" s="88"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="8"/>
+      <c r="A8" s="88"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="8"/>
+      <c r="A9" s="88"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="8"/>
+      <c r="A10" s="88"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="8"/>
+      <c r="A11" s="88"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="8"/>
+      <c r="A12" s="88"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
+      <c r="A13" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2436,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68552703-0AD8-4D91-ABA9-9CACF5514629}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2451,7 +4800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1615C3C-1C68-40EE-A2B4-D4DEAB4453B5}">
   <dimension ref="B2:C20"/>
   <sheetViews>
@@ -2600,7 +4949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71D69BD-AD22-45E5-8BF2-DE4F20AED8F2}">
   <dimension ref="B2:D2"/>
   <sheetViews>
